--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierfernandez/Google Drive/Internship_WB_Summer/Edit/Github/My_internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503CF47-EDD3-B84D-9967-926865D08BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC8831-5CC9-4444-B009-E1698ED593B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="2" xr2:uid="{F2C3729D-3322-EB44-BE48-C85F23F1813D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="lncalculadajavier" sheetId="4" r:id="rId1"/>
+    <sheet name="lnpaper" sheetId="5" r:id="rId2"/>
+    <sheet name="calculadajavier" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$V$23:$V$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$V$23:$V$95</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>sd</t>
   </si>
@@ -208,6 +209,9 @@
   <si>
     <t>Semi-elasticities with a 10% point-increase in management</t>
   </si>
+  <si>
+    <t>ln</t>
+  </si>
 </sst>
 </file>
 
@@ -215,9 +219,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +230,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,27 +279,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,43 +316,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -672,240 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE1E176-5050-0047-9896-9C61B931C13B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40530D27-3FF4-FB49-AF29-6F7B94936D7C}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.94518056083064761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.89336629257213762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.89184295389459667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.28219311041435186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>46.700970542765425</v>
-      </c>
-      <c r="D12" s="12">
-        <v>46.700970542765425</v>
-      </c>
-      <c r="E12" s="12">
-        <v>586.45283924274077</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9.5042087492464241E-36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="12">
-        <v>70</v>
-      </c>
-      <c r="C13" s="12">
-        <v>5.5743066095728597</v>
-      </c>
-      <c r="D13" s="12">
-        <v>7.9632951565326571E-2</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13">
-        <v>71</v>
-      </c>
-      <c r="C14" s="13">
-        <v>52.275277152338283</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="12">
-        <v>7.2658420034435078</v>
-      </c>
-      <c r="C17" s="12">
-        <v>6.3753999666061753E-2</v>
-      </c>
-      <c r="D17" s="12">
-        <v>113.96684194719383</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3.1710962782863265E-81</v>
-      </c>
-      <c r="F17" s="12">
-        <v>7.1386886604856663</v>
-      </c>
-      <c r="G17" s="12">
-        <v>7.3929953464013494</v>
-      </c>
-      <c r="H17" s="12">
-        <v>7.1386886604856663</v>
-      </c>
-      <c r="I17" s="12">
-        <v>7.3929953464013494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="13">
-        <v>2.688956146482461</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.11103686024523915</v>
-      </c>
-      <c r="D18" s="13">
-        <v>24.216788375892079</v>
-      </c>
-      <c r="E18" s="13">
-        <v>9.5042087492460179E-36</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2.4675001116348056</v>
-      </c>
-      <c r="G18" s="13">
-        <v>2.9104121813301163</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2.4675001116348056</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2.9104121813301163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC67C50-5C5A-7F4D-AC09-EF22081AE117}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,48 +733,48 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>0.94518056083064761</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>0.89336629257213762</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>0.89184295389459667</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12">
-        <v>0.28219311041435174</v>
+      <c r="B7" s="9">
+        <v>0.28219311041435186</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>72</v>
       </c>
     </row>
@@ -968,156 +784,382 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
-        <v>46.700970542765432</v>
-      </c>
-      <c r="D12" s="12">
-        <v>46.700970542765432</v>
-      </c>
-      <c r="E12" s="12">
-        <v>586.45283924274122</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9.5042087492462878E-36</v>
+      <c r="C12" s="9">
+        <v>46.700970542765425</v>
+      </c>
+      <c r="D12" s="9">
+        <v>46.700970542765425</v>
+      </c>
+      <c r="E12" s="9">
+        <v>586.45283924274077</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9.5042087492464241E-36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>70</v>
       </c>
-      <c r="C13" s="12">
-        <v>5.5743066095728562</v>
-      </c>
-      <c r="D13" s="12">
-        <v>7.9632951565326515E-2</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="9">
+        <v>5.5743066095728597</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7.9632951565326571E-2</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>71</v>
       </c>
-      <c r="C14" s="13">
-        <v>52.27527715233829</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="10">
+        <v>52.275277152338283</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
+        <v>7.2658420034435078</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6.3753999666061753E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>113.96684194719383</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.1710962782863265E-81</v>
+      </c>
+      <c r="F17" s="9">
+        <v>7.1386886604856663</v>
+      </c>
+      <c r="G17" s="9">
+        <v>7.3929953464013494</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7.1386886604856663</v>
+      </c>
+      <c r="I17" s="9">
+        <v>7.3929953464013494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.688956146482461</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.11103686024523915</v>
+      </c>
+      <c r="D18" s="10">
+        <v>24.216788375892079</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9.5042087492460179E-36</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2.4675001116348056</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2.9104121813301163</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2.4675001116348056</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2.9104121813301163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA54D524-DC12-BE43-A479-872EA3D1C589}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.94518056083064761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.89336629257213762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.89184295389459667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.28219311041435174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>46.700970542765432</v>
+      </c>
+      <c r="D12" s="9">
+        <v>46.700970542765432</v>
+      </c>
+      <c r="E12" s="9">
+        <v>586.45283924274122</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9.5042087492462878E-36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5.5743066095728562</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7.9632951565326515E-2</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10">
+        <v>52.27527715233829</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
         <v>12.838596215693313</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>6.3753999666061725E-2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>201.37711018823663</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>1.7771041678551769E-98</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>12.711442872735471</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <v>12.965749558651154</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="9">
         <v>12.711442872735471</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9">
         <v>12.965749558651154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>2.6889561464824583</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>0.11103686024523911</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>24.216788375892065</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>9.5042087492462878E-36</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>2.467500111634803</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>2.9104121813301136</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="10">
         <v>2.467500111634803</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="10">
         <v>2.9104121813301136</v>
       </c>
     </row>
@@ -1127,11 +1169,237 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52399E-0301-9144-ADD1-646DC5E5E0E6}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.9218963894506006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.84989295288205335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.84774856649465413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2110.7047861918863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1765696988.9513316</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1765696988.9513316</v>
+      </c>
+      <c r="E12" s="9">
+        <v>396.33386868903955</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.5351000866399715E-30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9">
+        <v>311855228.61173356</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4455074.6944533363</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2077552217.5630651</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9">
+        <v>-873.35778269779257</v>
+      </c>
+      <c r="C17" s="9">
+        <v>476.85739753336185</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-1.8314862833530663</v>
+      </c>
+      <c r="E17" s="9">
+        <v>7.1283111549537259E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-1824.4198733609546</v>
+      </c>
+      <c r="G17" s="9">
+        <v>77.704307965369594</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-1824.4198733609546</v>
+      </c>
+      <c r="I17" s="9">
+        <v>77.704307965369594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10">
+        <v>16534.035074630763</v>
+      </c>
+      <c r="C18" s="10">
+        <v>830.51649283435665</v>
+      </c>
+      <c r="D18" s="10">
+        <v>19.908135741174757</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.5351000866399495E-30</v>
+      </c>
+      <c r="F18" s="10">
+        <v>14877.622159383875</v>
+      </c>
+      <c r="G18" s="10">
+        <v>18190.447989877652</v>
+      </c>
+      <c r="H18" s="10">
+        <v>14877.622159383875</v>
+      </c>
+      <c r="I18" s="10">
+        <v>18190.447989877652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC0F81-644A-F342-85C6-A2A5E10AF9E0}">
   <dimension ref="C2:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,35 +1411,37 @@
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="3:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="14">
         <v>0.24</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="14">
         <v>0.20899999999999999</v>
       </c>
     </row>
@@ -1180,13 +1450,13 @@
         <f xml:space="preserve"> EXP(0.24/10)-1</f>
         <v>2.4290317890621527E-2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>0.64</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="13">
         <v>0.498</v>
       </c>
     </row>
@@ -1195,13 +1465,13 @@
         <f xml:space="preserve"> EXP(0.1351)-1</f>
         <v>0.14465124375262439</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>2.94</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="13">
         <f>0.385</f>
         <v>0.38500000000000001</v>
       </c>
@@ -1215,13 +1485,13 @@
         <f t="array" ref="C7">exp</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="13">
         <v>2.92</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="13">
         <v>0.37</v>
       </c>
     </row>
@@ -1229,13 +1499,13 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="13">
         <v>2.37</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <v>0.34</v>
       </c>
     </row>
@@ -1245,36 +1515,36 @@
         <v>0.26842503379271787</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="17" t="s">
+    <row r="10" spans="3:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="3:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="18">
         <f xml:space="preserve"> EXP(E4/10)-1</f>
         <v>2.4290317890621527E-2</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="18">
         <f xml:space="preserve"> EXP(F4/10)-1</f>
         <v>2.1119934538304852E-2</v>
       </c>
@@ -1283,97 +1553,97 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="19">
         <f t="shared" ref="E13:F13" si="0" xml:space="preserve"> EXP(E5/10)-1</f>
         <v>6.6092398761505189E-2</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>5.1060863180769189E-2</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="19">
         <f t="shared" ref="E14:F14" si="1" xml:space="preserve"> EXP(E6/10)-1</f>
         <v>0.34178390366697142</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="19">
         <f t="shared" si="1"/>
         <v>3.9250728357983933E-2</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="19">
         <f t="shared" ref="E15:F15" si="2" xml:space="preserve"> EXP(E7/10)-1</f>
         <v>0.33910301763929374</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="19">
         <f t="shared" si="2"/>
         <v>3.7693020838157176E-2</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="19">
         <f t="shared" ref="E16:F16" si="3" xml:space="preserve"> EXP(E8/10)-1</f>
         <v>0.26744111777528357</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="19">
         <f t="shared" si="3"/>
         <v>3.4584606728117917E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:28" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="18" t="s">
+    <row r="18" spans="4:28" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="4:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="4:28" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="4:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="18">
         <f>EXP(0.176*E4)-1</f>
         <v>4.3144803463427417E-2</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="18">
         <f>EXP(0.176*F4)-1</f>
         <v>3.7468903351215888E-2</v>
       </c>
     </row>
     <row r="21" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="19">
         <f t="shared" ref="E21:F21" si="4">EXP(0.176*E5)-1</f>
         <v>0.11922893799616818</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="19">
         <f t="shared" si="4"/>
         <v>9.160380985215455E-2</v>
       </c>
@@ -1382,31 +1652,37 @@
       </c>
     </row>
     <row r="22" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="19">
         <f t="shared" ref="E22:F22" si="5">EXP(0.176*E6)-1</f>
         <v>0.67772716588357818</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="19">
         <f t="shared" si="5"/>
         <v>7.0108451628794421E-2</v>
       </c>
+      <c r="Z22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="19">
         <f t="shared" ref="E23:F23" si="6">EXP(0.176*E7)-1</f>
         <v>0.67183194793027345</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <f t="shared" si="6"/>
         <v>6.728709115097109E-2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>38000000</v>
       </c>
       <c r="J23" t="s">
@@ -1427,28 +1703,28 @@
       <c r="P23" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="X23" t="s">
         <v>23</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AB23" t="s">
@@ -1456,24 +1732,24 @@
       </c>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="19">
         <f t="shared" ref="E24:F24" si="7">EXP(0.176*E8)-1</f>
         <v>0.51758461216237195</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="19">
         <f t="shared" si="7"/>
         <v>6.1666666288695327E-2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <f>I24</f>
         <v>3800</v>
       </c>
@@ -1503,13 +1779,13 @@
         <f>P24/M24</f>
         <v>129847.64196848944</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="7">
         <v>0.38</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="3">
         <v>493.42103948025988</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="3">
         <v>129847.64196848944</v>
       </c>
       <c r="X24">
@@ -1528,14 +1804,14 @@
       </c>
     </row>
     <row r="25" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <f>I23/I24</f>
         <v>10000</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <f>K23/K24</f>
         <v>10000000</v>
       </c>
@@ -1565,13 +1841,13 @@
         <f t="shared" ref="R25:R88" si="12">P25/M25</f>
         <v>946297.33316743409</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="7">
         <v>0.03</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="3">
         <v>662.04487039860601</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="3">
         <v>174222.33431542263</v>
       </c>
       <c r="X25">
@@ -1616,13 +1892,13 @@
         <f t="shared" si="12"/>
         <v>1362028.9498301414</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="7">
         <v>0.27</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="3">
         <v>670.84323666599062</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="3">
         <v>176537.69385947121</v>
       </c>
       <c r="X26">
@@ -1673,13 +1949,13 @@
         <f t="shared" si="12"/>
         <v>174222.33431542263</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="3">
         <v>738.47170635787631</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="3">
         <v>194334.6595678622</v>
       </c>
       <c r="X27">
@@ -1698,11 +1974,11 @@
       </c>
     </row>
     <row r="28" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <f>I23/4000</f>
         <v>9500</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="4">
         <f>K25</f>
         <v>10000000</v>
       </c>
@@ -1732,13 +2008,13 @@
         <f t="shared" si="12"/>
         <v>1652956.7657100363</v>
       </c>
-      <c r="S28" s="10">
+      <c r="S28" s="7">
         <v>0.76</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="3">
         <v>1099.3681592039802</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="3">
         <v>289307.41031683685</v>
       </c>
       <c r="X28">
@@ -1791,13 +2067,13 @@
         <f t="shared" si="12"/>
         <v>2345320.6773365657</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="7">
         <v>0.82</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="3">
         <v>1174.690433536367</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="3">
         <v>309129.06145693868</v>
       </c>
       <c r="X29">
@@ -1842,13 +2118,13 @@
         <f t="shared" si="12"/>
         <v>1313297.7177072938</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="7">
         <v>0.98</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="3">
         <v>1481.2579556412729</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="3">
         <v>389804.72516875603</v>
       </c>
       <c r="X30">
@@ -1893,13 +2169,13 @@
         <f t="shared" si="12"/>
         <v>1434806.3166347912</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="3">
         <v>1506.3394308943089</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="3">
         <v>396405.11339323921</v>
       </c>
       <c r="X31">
@@ -1944,13 +2220,13 @@
         <f t="shared" si="12"/>
         <v>530795.84487534629</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S32" s="7">
         <v>0.41</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="3">
         <v>2017.0242105263158</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="3">
         <v>530795.84487534629</v>
       </c>
       <c r="X32">
@@ -1995,13 +2271,13 @@
         <f t="shared" si="12"/>
         <v>4469598.4248255044</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="7">
         <v>0.41</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="3">
         <v>2542.7265193370167</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="3">
         <v>669138.55772026756</v>
       </c>
       <c r="X33">
@@ -2046,13 +2322,13 @@
         <f t="shared" si="12"/>
         <v>396405.11339323921</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="3">
         <v>2544.644173007609</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="3">
         <v>669643.20342305501</v>
       </c>
       <c r="X34">
@@ -2097,13 +2373,13 @@
         <f t="shared" si="12"/>
         <v>1975052.0227303477</v>
       </c>
-      <c r="S35" s="10">
+      <c r="S35" s="7">
         <v>0.25</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="3">
         <v>2564.0770421989932</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="3">
         <v>674757.11636815616</v>
       </c>
       <c r="X35">
@@ -2148,13 +2424,13 @@
         <f t="shared" si="12"/>
         <v>1367242.9027113237</v>
       </c>
-      <c r="S36" s="10">
+      <c r="S36" s="7">
         <v>0.72</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="3">
         <v>2909.7386569872956</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="3">
         <v>765720.69920718321</v>
       </c>
       <c r="X36">
@@ -2199,13 +2475,13 @@
         <f t="shared" si="12"/>
         <v>194334.6595678622</v>
       </c>
-      <c r="S37" s="10">
+      <c r="S37" s="7">
         <v>0.98</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="3">
         <v>3169.3530419880035</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="3">
         <v>834040.27420736931</v>
       </c>
       <c r="X37">
@@ -2250,13 +2526,13 @@
         <f t="shared" si="12"/>
         <v>669138.55772026756</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="7">
         <v>0.18</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="3">
         <v>3231.7334016393443</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="3">
         <v>850456.15832614328</v>
       </c>
       <c r="X38">
@@ -2301,13 +2577,13 @@
         <f t="shared" si="12"/>
         <v>906558.61392611952</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S39" s="7">
         <v>0.84</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="3">
         <v>3348.3810010214506</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="3">
         <v>881152.895005645</v>
       </c>
       <c r="X39">
@@ -2352,13 +2628,13 @@
         <f t="shared" si="12"/>
         <v>3041172.4929206129</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="7">
         <v>0.89</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="3">
         <v>3432.1637952559299</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="3">
         <v>903200.99875156058</v>
       </c>
       <c r="X40">
@@ -2403,13 +2679,13 @@
         <f t="shared" si="12"/>
         <v>1125910.5299547554</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="7">
         <v>0.83</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="3">
         <v>3444.9227329192545</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="3">
         <v>906558.61392611952</v>
       </c>
       <c r="X41">
@@ -2454,13 +2730,13 @@
         <f t="shared" si="12"/>
         <v>1395399.5703544575</v>
       </c>
-      <c r="S42" s="10">
+      <c r="S42" s="7">
         <v>0.73</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="3">
         <v>3564.2481481481482</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="3">
         <v>937960.03898635472</v>
       </c>
       <c r="X42">
@@ -2505,13 +2781,13 @@
         <f t="shared" si="12"/>
         <v>2036494.9242934273</v>
       </c>
-      <c r="S43" s="10">
+      <c r="S43" s="7">
         <v>1</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="3">
         <v>3595.9298660362492</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="3">
         <v>946297.33316743409</v>
       </c>
       <c r="X43">
@@ -2556,13 +2832,13 @@
         <f t="shared" si="12"/>
         <v>4017271.3976285639</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S44" s="7">
         <v>0.86</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="3">
         <v>3695.0802529182879</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="3">
         <v>972389.54024165461</v>
       </c>
       <c r="X44">
@@ -2607,13 +2883,13 @@
         <f t="shared" si="12"/>
         <v>6111606.1705989121</v>
       </c>
-      <c r="S45" s="10">
+      <c r="S45" s="7">
         <v>0.05</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="3">
         <v>3816.2153053132433</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="3">
         <v>1004267.1856087485</v>
       </c>
       <c r="X45">
@@ -2658,13 +2934,13 @@
         <f t="shared" si="12"/>
         <v>2132966.3372812858</v>
       </c>
-      <c r="S46" s="10">
+      <c r="S46" s="7">
         <v>0.02</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="3">
         <v>3980.7570093457944</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="3">
         <v>1047567.6340383668</v>
       </c>
       <c r="X46">
@@ -2709,13 +2985,13 @@
         <f t="shared" si="12"/>
         <v>850456.15832614328</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47" s="7">
         <v>0.52</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="3">
         <v>4249.8784722222226</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="3">
         <v>1118389.071637427</v>
       </c>
       <c r="X47">
@@ -2760,13 +3036,13 @@
         <f t="shared" si="12"/>
         <v>972389.54024165461</v>
       </c>
-      <c r="S48" s="10">
+      <c r="S48" s="7">
         <v>0.32</v>
       </c>
-      <c r="V48">
+      <c r="V48" s="3">
         <v>4278.4600138280712</v>
       </c>
-      <c r="W48">
+      <c r="W48" s="3">
         <v>1125910.5299547554</v>
       </c>
       <c r="X48">
@@ -2811,13 +3087,13 @@
         <f t="shared" si="12"/>
         <v>765720.69920718321</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="7">
         <v>0.63</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="3">
         <v>4331.0292524377028</v>
       </c>
-      <c r="W49">
+      <c r="W49" s="3">
         <v>1139744.5401151848</v>
       </c>
       <c r="X49">
@@ -2862,13 +3138,13 @@
         <f t="shared" si="12"/>
         <v>4980652.8275116542</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S50" s="7">
         <v>1</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="3">
         <v>4403.9008133755087</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="3">
         <v>1158921.2666777654</v>
       </c>
       <c r="X50">
@@ -2913,13 +3189,13 @@
         <f t="shared" si="12"/>
         <v>1431878.0687884158</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="7">
         <v>0.86</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="3">
         <v>4556.496873223422</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="3">
         <v>1199078.1245324796</v>
       </c>
       <c r="X51">
@@ -2964,13 +3240,13 @@
         <f t="shared" si="12"/>
         <v>2086625.6652868125</v>
       </c>
-      <c r="S52" s="10">
+      <c r="S52" s="7">
         <v>0.95</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="3">
         <v>4990.5313272877165</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="3">
         <v>1313297.7177072938</v>
       </c>
       <c r="X52">
@@ -3015,13 +3291,13 @@
         <f t="shared" si="12"/>
         <v>389804.72516875603</v>
       </c>
-      <c r="S53" s="10">
+      <c r="S53" s="7">
         <v>0.62</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="3">
         <v>5068.1311232063335</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="3">
         <v>1333718.7166332458</v>
       </c>
       <c r="X53">
@@ -3066,13 +3342,13 @@
         <f t="shared" si="12"/>
         <v>1118389.071637427</v>
       </c>
-      <c r="S54" s="10">
+      <c r="S54" s="7">
         <v>0.53</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="3">
         <v>5172.5461380724537</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="3">
         <v>1361196.3521243299</v>
       </c>
       <c r="X54">
@@ -3117,13 +3393,13 @@
         <f t="shared" si="12"/>
         <v>5593920.639749663</v>
       </c>
-      <c r="S55" s="10">
+      <c r="S55" s="7">
         <v>0.11</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="3">
         <v>5175.7100093545369</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="3">
         <v>1362028.9498301414</v>
       </c>
       <c r="X55">
@@ -3168,13 +3444,13 @@
         <f t="shared" si="12"/>
         <v>2250447.8546403972</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S56" s="7">
         <v>0.49</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="3">
         <v>5195.5230303030303</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="3">
         <v>1367242.9027113237</v>
       </c>
       <c r="X56">
@@ -3219,13 +3495,13 @@
         <f t="shared" si="12"/>
         <v>1199078.1245324796</v>
       </c>
-      <c r="S57" s="10">
+      <c r="S57" s="7">
         <v>0.17</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="3">
         <v>5212.0105645427529</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="3">
         <v>1371581.7275112509</v>
       </c>
       <c r="X57">
@@ -3270,13 +3546,13 @@
         <f t="shared" si="12"/>
         <v>903200.99875156058</v>
       </c>
-      <c r="S58" s="10">
+      <c r="S58" s="7">
         <v>0.35</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="3">
         <v>5302.5183673469392</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="3">
         <v>1395399.5703544575</v>
       </c>
       <c r="X58">
@@ -3321,13 +3597,13 @@
         <f t="shared" si="12"/>
         <v>1139744.5401151848</v>
       </c>
-      <c r="S59" s="10">
+      <c r="S59" s="7">
         <v>0.45</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="3">
         <v>5441.136661395979</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="3">
         <v>1431878.0687884158</v>
       </c>
       <c r="X59">
@@ -3372,13 +3648,13 @@
         <f t="shared" si="12"/>
         <v>674757.11636815616</v>
       </c>
-      <c r="S60" s="10">
+      <c r="S60" s="7">
         <v>0.17</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="3">
         <v>5452.2640032122063</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="3">
         <v>1434806.3166347912</v>
       </c>
       <c r="X60">
@@ -3423,13 +3699,13 @@
         <f t="shared" si="12"/>
         <v>2163904.9316994776</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S61" s="7">
         <v>0.7</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="3">
         <v>5689.1437837837839</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="3">
         <v>1497143.1009957325</v>
       </c>
       <c r="X61">
@@ -3474,13 +3750,13 @@
         <f t="shared" si="12"/>
         <v>4870757.6633892423</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S62" s="7">
         <v>0.4</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="3">
         <v>5927.7790163934424</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="3">
         <v>1559941.846419327</v>
       </c>
       <c r="X62">
@@ -3525,13 +3801,13 @@
         <f t="shared" si="12"/>
         <v>5961371.6047392599</v>
       </c>
-      <c r="S63" s="10">
+      <c r="S63" s="7">
         <v>0.44</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="3">
         <v>6281.2357096981377</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="3">
         <v>1652956.7657100363</v>
       </c>
       <c r="X63">
@@ -3576,13 +3852,13 @@
         <f t="shared" si="12"/>
         <v>2514189.0474901907</v>
       </c>
-      <c r="S64" s="10">
+      <c r="S64" s="7">
         <v>0.16</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="3">
         <v>6739.3716951788492</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="3">
         <v>1773518.8671523288</v>
       </c>
       <c r="X64">
@@ -3627,13 +3903,13 @@
         <f t="shared" si="12"/>
         <v>1371581.7275112509</v>
       </c>
-      <c r="S65" s="10">
+      <c r="S65" s="7">
         <v>0.35</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="3">
         <v>6941.341971830986</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="3">
         <v>1826668.9399555228</v>
       </c>
       <c r="X65">
@@ -3678,13 +3954,13 @@
         <f t="shared" si="12"/>
         <v>834040.27420736931</v>
       </c>
-      <c r="S66" s="10">
+      <c r="S66" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="3">
         <v>7505.1976863753216</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="3">
         <v>1975052.0227303477</v>
       </c>
       <c r="X66">
@@ -3729,13 +4005,13 @@
         <f t="shared" si="12"/>
         <v>309129.06145693868</v>
       </c>
-      <c r="S67" s="10">
+      <c r="S67" s="7">
         <v>0.67</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="3">
         <v>7738.6807123150238</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="3">
         <v>2036494.9242934273</v>
       </c>
       <c r="X67">
@@ -3780,13 +4056,13 @@
         <f t="shared" si="12"/>
         <v>2185584.093998835</v>
       </c>
-      <c r="S68" s="10">
+      <c r="S68" s="7">
         <v>0.22</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="3">
         <v>7929.1775280898873</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="3">
         <v>2086625.6652868125</v>
       </c>
       <c r="X68">
@@ -3831,13 +4107,13 @@
         <f t="shared" si="12"/>
         <v>2345362.3100426961</v>
       </c>
-      <c r="S69" s="10">
+      <c r="S69" s="7">
         <v>0.63</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="3">
         <v>8100.7556866048863</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="3">
         <v>2131777.8122644438</v>
       </c>
       <c r="X69">
@@ -3882,13 +4158,13 @@
         <f t="shared" si="12"/>
         <v>3263938.6743485932</v>
       </c>
-      <c r="S70" s="10">
+      <c r="S70" s="7">
         <v>0.06</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="3">
         <v>8105.2720816688861</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="3">
         <v>2132966.3372812858</v>
       </c>
       <c r="X70">
@@ -3933,13 +4209,13 @@
         <f t="shared" si="12"/>
         <v>176537.69385947121</v>
       </c>
-      <c r="S71" s="10">
+      <c r="S71" s="7">
         <v>0.24</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="3">
         <v>8222.8387404580153</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="3">
         <v>2163904.9316994776</v>
       </c>
       <c r="X71">
@@ -3984,13 +4260,13 @@
         <f t="shared" si="12"/>
         <v>3189658.0378172533</v>
       </c>
-      <c r="S72" s="10">
+      <c r="S72" s="7">
         <v>0.91</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="3">
         <v>8305.2195571955726</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="3">
         <v>2185584.093998835</v>
       </c>
       <c r="X72">
@@ -4035,13 +4311,13 @@
         <f t="shared" si="12"/>
         <v>2423628.8263191059</v>
       </c>
-      <c r="S73" s="10">
+      <c r="S73" s="7">
         <v>0.02</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="3">
         <v>8466.512384652744</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="3">
         <v>2228029.574908617</v>
       </c>
       <c r="X73">
@@ -4086,13 +4362,13 @@
         <f t="shared" si="12"/>
         <v>937960.03898635472</v>
       </c>
-      <c r="S74" s="10">
+      <c r="S74" s="7">
         <v>0.79</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="3">
         <v>8551.7018476335106</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="3">
         <v>2250447.8546403972</v>
       </c>
       <c r="X74">
@@ -4137,13 +4413,13 @@
         <f t="shared" si="12"/>
         <v>1361196.3521243299</v>
       </c>
-      <c r="S75" s="10">
+      <c r="S75" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="3">
         <v>8582.3730208993038</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="3">
         <v>2258519.2160261325</v>
       </c>
       <c r="X75">
@@ -4188,13 +4464,13 @@
         <f t="shared" si="12"/>
         <v>1826668.9399555228</v>
       </c>
-      <c r="S76" s="10">
+      <c r="S76" s="7">
         <v>0.19</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="3">
         <v>8604.676334106729</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="3">
         <v>2264388.5089754546</v>
       </c>
       <c r="X76">
@@ -4239,13 +4515,13 @@
         <f t="shared" si="12"/>
         <v>2409523.4568751724</v>
       </c>
-      <c r="S77" s="10">
+      <c r="S77" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="3">
         <v>8895.538440341692</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="3">
         <v>2340931.1685109716</v>
       </c>
       <c r="X77">
@@ -4290,13 +4566,13 @@
         <f t="shared" si="12"/>
         <v>1773518.8671523288</v>
       </c>
-      <c r="S78" s="10">
+      <c r="S78" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="3">
         <v>8912.2185738789503</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="3">
         <v>2345320.6773365657</v>
       </c>
       <c r="X78">
@@ -4341,13 +4617,13 @@
         <f t="shared" si="12"/>
         <v>1047567.6340383668</v>
       </c>
-      <c r="S79" s="10">
+      <c r="S79" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="3">
         <v>8912.3767781622446</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="3">
         <v>2345362.3100426961</v>
       </c>
       <c r="X79">
@@ -4392,13 +4668,13 @@
         <f t="shared" si="12"/>
         <v>2131777.8122644438</v>
       </c>
-      <c r="S80" s="10">
+      <c r="S80" s="7">
         <v>0.61</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="3">
         <v>9156.1891361256548</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="3">
         <v>2409523.4568751724</v>
       </c>
       <c r="X80">
@@ -4443,13 +4719,13 @@
         <f t="shared" si="12"/>
         <v>289307.41031683685</v>
       </c>
-      <c r="S81" s="10">
+      <c r="S81" s="7">
         <v>0.86</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="3">
         <v>9209.7895400126017</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="3">
         <v>2423628.8263191059</v>
       </c>
       <c r="X81">
@@ -4494,13 +4770,13 @@
         <f t="shared" si="12"/>
         <v>2264388.5089754546</v>
       </c>
-      <c r="S82" s="10">
+      <c r="S82" s="7">
         <v>0.44</v>
       </c>
-      <c r="V82">
+      <c r="V82" s="3">
         <v>9553.9183804627246</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="3">
         <v>2514189.0474901907</v>
       </c>
       <c r="X82">
@@ -4545,13 +4821,13 @@
         <f t="shared" si="12"/>
         <v>1559941.846419327</v>
       </c>
-      <c r="S83" s="10">
+      <c r="S83" s="7">
         <v>1</v>
       </c>
-      <c r="V83">
+      <c r="V83" s="3">
         <v>11556.455473098331</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="3">
         <v>3041172.4929206129</v>
       </c>
       <c r="X83">
@@ -4596,13 +4872,13 @@
         <f t="shared" si="12"/>
         <v>2228029.574908617</v>
       </c>
-      <c r="S84" s="10">
+      <c r="S84" s="7">
         <v>0.16</v>
       </c>
-      <c r="V84">
+      <c r="V84" s="3">
         <v>12120.700543705563</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="3">
         <v>3189658.0378172533</v>
       </c>
       <c r="X84">
@@ -4647,13 +4923,13 @@
         <f t="shared" si="12"/>
         <v>2340931.1685109716</v>
       </c>
-      <c r="S85" s="10">
+      <c r="S85" s="7">
         <v>0.08</v>
       </c>
-      <c r="V85">
+      <c r="V85" s="3">
         <v>12402.966962524655</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="3">
         <v>3263938.6743485932</v>
       </c>
       <c r="X85">
@@ -4698,13 +4974,13 @@
         <f t="shared" si="12"/>
         <v>4733120.8087787032</v>
       </c>
-      <c r="S86" s="10">
+      <c r="S86" s="7">
         <v>0.95</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="3">
         <v>13826.511679644049</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="3">
         <v>3638555.7051694868</v>
       </c>
       <c r="X86">
@@ -4749,13 +5025,13 @@
         <f t="shared" si="12"/>
         <v>1333718.7166332458</v>
       </c>
-      <c r="S87" s="10">
+      <c r="S87" s="7">
         <v>0.64</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="3">
         <v>14716.6065830721</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="3">
         <v>3872791.206071605</v>
       </c>
       <c r="X87">
@@ -4800,13 +5076,13 @@
         <f t="shared" si="12"/>
         <v>3638555.7051694868</v>
       </c>
-      <c r="S88" s="10">
+      <c r="S88" s="7">
         <v>0.02</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="3">
         <v>15265.631310988545</v>
       </c>
-      <c r="W88">
+      <c r="W88" s="3">
         <v>4017271.3976285639</v>
       </c>
       <c r="X88">
@@ -4851,13 +5127,13 @@
         <f t="shared" ref="R89:R95" si="19">P89/M89</f>
         <v>1158921.2666777654</v>
       </c>
-      <c r="S89" s="10">
+      <c r="S89" s="7">
         <v>0.39</v>
       </c>
-      <c r="V89">
+      <c r="V89" s="3">
         <v>16984.474014336916</v>
       </c>
-      <c r="W89">
+      <c r="W89" s="3">
         <v>4469598.4248255044</v>
       </c>
       <c r="X89">
@@ -4902,13 +5178,13 @@
         <f t="shared" si="19"/>
         <v>1497143.1009957325</v>
       </c>
-      <c r="S90" s="10">
+      <c r="S90" s="7">
         <v>0.34</v>
       </c>
-      <c r="V90">
+      <c r="V90" s="3">
         <v>17985.859073359072</v>
       </c>
-      <c r="W90">
+      <c r="W90" s="3">
         <v>4733120.8087787032</v>
       </c>
       <c r="X90">
@@ -4953,13 +5229,13 @@
         <f t="shared" si="19"/>
         <v>881152.895005645</v>
       </c>
-      <c r="S91" s="10">
+      <c r="S91" s="7">
         <v>0.76</v>
       </c>
-      <c r="V91">
+      <c r="V91" s="3">
         <v>18508.879120879123</v>
       </c>
-      <c r="W91">
+      <c r="W91" s="3">
         <v>4870757.6633892423</v>
       </c>
       <c r="X91">
@@ -5004,13 +5280,13 @@
         <f t="shared" si="19"/>
         <v>3872791.206071605</v>
       </c>
-      <c r="S92" s="10">
+      <c r="S92" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="3">
         <v>18926.480744544289</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="3">
         <v>4980652.8275116542</v>
       </c>
       <c r="X92">
@@ -5055,13 +5331,13 @@
         <f t="shared" si="19"/>
         <v>2258519.2160261325</v>
       </c>
-      <c r="S93" s="10">
+      <c r="S93" s="7">
         <v>0.43</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="3">
         <v>21256.898431048721</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="3">
         <v>5593920.639749663</v>
       </c>
       <c r="X93">
@@ -5106,13 +5382,13 @@
         <f t="shared" si="19"/>
         <v>669643.20342305501</v>
       </c>
-      <c r="S94" s="10">
+      <c r="S94" s="7">
         <v>0.04</v>
       </c>
-      <c r="V94">
+      <c r="V94" s="3">
         <v>22653.21209800919</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="3">
         <v>5961371.6047392599</v>
       </c>
       <c r="X94">
@@ -5157,13 +5433,13 @@
         <f t="shared" si="19"/>
         <v>1004267.1856087485</v>
       </c>
-      <c r="S95" s="10">
+      <c r="S95" s="7">
         <v>0.09</v>
       </c>
-      <c r="V95">
+      <c r="V95" s="3">
         <v>23224.103448275862</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="3">
         <v>6111606.1705989121</v>
       </c>
       <c r="X95">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierfernandez/Google Drive/Internship_WB_Summer/Edit/Github/My_internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC8831-5CC9-4444-B009-E1698ED593B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C548A-6A24-5740-9419-87B9EEB2A700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="2" xr2:uid="{F2C3729D-3322-EB44-BE48-C85F23F1813D}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="3" xr2:uid="{F2C3729D-3322-EB44-BE48-C85F23F1813D}"/>
   </bookViews>
   <sheets>
     <sheet name="lncalculadajavier" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>sd</t>
   </si>
@@ -211,15 +211,40 @@
   </si>
   <si>
     <t>ln</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Exports - For entire sample:(1+Exp)</t>
+  </si>
+  <si>
+    <t>Exports - For exporters</t>
+  </si>
+  <si>
+    <t>Products - For exporters</t>
+  </si>
+  <si>
+    <t>Products- For entire sample:(1+Exp)</t>
+  </si>
+  <si>
+    <t>Destinations - For exporters</t>
+  </si>
+  <si>
+    <t>Destinations - For entire sample:(1+Exp)</t>
+  </si>
+  <si>
+    <t>From 25pctl to 75pctl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -365,7 +390,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -401,6 +426,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1172,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F52399E-0301-9144-ADD1-646DC5E5E0E6}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1398,15 +1430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC0F81-644A-F342-85C6-A2A5E10AF9E0}">
   <dimension ref="C2:AB95"/>
   <sheetViews>
-    <sheetView topLeftCell="L20" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
     <col min="9" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1415,12 +1450,12 @@
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <f xml:space="preserve"> EXP(0.24/10)-1</f>
         <v>2.4290317890621527E-2</v>
@@ -1460,7 +1495,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <f xml:space="preserve"> EXP(0.1351)-1</f>
         <v>0.14465124375262439</v>
@@ -1480,7 +1515,7 @@
         <v>6.9077552789821368</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" t="e" cm="1">
         <f t="array" ref="C7">exp</f>
         <v>#NAME?</v>
@@ -1494,8 +1529,11 @@
       <c r="F7" s="13">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -1509,13 +1547,10 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="2">
-        <f>EXP(0.176*1.351)-1</f>
-        <v>0.26842503379271787</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="3:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="21" t="s">
         <v>48</v>
       </c>
@@ -1525,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D12" s="14" t="s">
         <v>3</v>
       </c>
@@ -1552,56 +1587,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="19">
-        <f t="shared" ref="E13:F13" si="0" xml:space="preserve"> EXP(E5/10)-1</f>
+        <f xml:space="preserve"> EXP(E5/10)-1</f>
         <v>6.6092398761505189E-2</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> EXP(F5/10)-1</f>
         <v>5.1060863180769189E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="19">
-        <f t="shared" ref="E14:F14" si="1" xml:space="preserve"> EXP(E6/10)-1</f>
+        <f xml:space="preserve"> EXP(E6/10)-1</f>
         <v>0.34178390366697142</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> EXP(F6/10)-1</f>
         <v>3.9250728357983933E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="19">
-        <f t="shared" ref="E15:F15" si="2" xml:space="preserve"> EXP(E7/10)-1</f>
+        <f xml:space="preserve"> EXP(E7/10)-1</f>
         <v>0.33910301763929374</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> EXP(F7/10)-1</f>
         <v>3.7693020838157176E-2</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="18">
+        <f xml:space="preserve"> EXP(H7/100)-1</f>
+        <v>9.2424500803804932E-3</v>
+      </c>
+      <c r="I15">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" ref="E16:F16" si="3" xml:space="preserve"> EXP(E8/10)-1</f>
+        <f xml:space="preserve"> EXP(E8/10)-1</f>
         <v>0.26744111777528357</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> EXP(F8/10)-1</f>
         <v>3.4584606728117917E-2</v>
+      </c>
+      <c r="H16" s="22">
+        <f>(H7/4)</f>
+        <v>0.23</v>
       </c>
     </row>
     <row r="18" spans="4:28" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1640,11 +1687,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" ref="E21:F21" si="4">EXP(0.176*E5)-1</f>
+        <f>EXP(0.176*E5)-1</f>
         <v>0.11922893799616818</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="4"/>
+        <f>EXP(0.176*F5)-1</f>
         <v>9.160380985215455E-2</v>
       </c>
       <c r="T21">
@@ -1656,11 +1703,11 @@
         <v>7</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" ref="E22:F22" si="5">EXP(0.176*E6)-1</f>
+        <f>EXP(0.176*E6)-1</f>
         <v>0.67772716588357818</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="5"/>
+        <f>EXP(0.176*F6)-1</f>
         <v>7.0108451628794421E-2</v>
       </c>
       <c r="Z22" t="s">
@@ -1675,11 +1722,11 @@
         <v>5</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" ref="E23:F23" si="6">EXP(0.176*E7)-1</f>
+        <f>EXP(0.176*E7)-1</f>
         <v>0.67183194793027345</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="6"/>
+        <f>EXP(0.176*F7)-1</f>
         <v>6.728709115097109E-2</v>
       </c>
       <c r="I23" s="3">
@@ -1736,11 +1783,11 @@
         <v>6</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" ref="E24:F24" si="7">EXP(0.176*E8)-1</f>
+        <f>EXP(0.176*E8)-1</f>
         <v>0.51758461216237195</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="7"/>
+        <f>EXP(0.176*F8)-1</f>
         <v>6.1666666288695327E-2</v>
       </c>
       <c r="I24" s="3">
@@ -1819,26 +1866,26 @@
         <v>1269</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M88" si="8">L25/1000</f>
+        <f t="shared" ref="M25:M88" si="0">L25/1000</f>
         <v>1.2689999999999999</v>
       </c>
       <c r="N25">
         <v>4563235</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O88" si="9">N25*1000</f>
+        <f t="shared" ref="O25:O88" si="1">N25*1000</f>
         <v>4563235000</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P88" si="10">O25/3800</f>
+        <f t="shared" ref="P25:P88" si="2">O25/3800</f>
         <v>1200851.3157894737</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q88" si="11">N25/L25</f>
+        <f t="shared" ref="Q25:Q88" si="3">N25/L25</f>
         <v>3595.9298660362492</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:R88" si="12">P25/M25</f>
+        <f t="shared" ref="R25:R88" si="4">P25/M25</f>
         <v>946297.33316743409</v>
       </c>
       <c r="S25" s="7">
@@ -1854,11 +1901,11 @@
         <v>0.02</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z88" si="13">LN(V25)</f>
+        <f t="shared" ref="Z25:Z88" si="5">LN(V25)</f>
         <v>6.495333333698361</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25:AA88" si="14">LN(W25)</f>
+        <f t="shared" ref="AA25:AA88" si="6">LN(W25)</f>
         <v>12.068087545948158</v>
       </c>
       <c r="AB25">
@@ -1866,30 +1913,34 @@
       </c>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="E26" s="18">
+        <f>EXP(0.176*E4)-1</f>
+        <v>4.3144803463427417E-2</v>
+      </c>
       <c r="L26">
         <v>2138</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.1379999999999999</v>
       </c>
       <c r="N26">
         <v>11065668</v>
       </c>
       <c r="O26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>11065668000</v>
       </c>
       <c r="P26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2912017.8947368423</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5175.7100093545369</v>
       </c>
       <c r="R26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1362028.9498301414</v>
       </c>
       <c r="S26" s="7">
@@ -1905,11 +1956,11 @@
         <v>0.02</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>6.5085354832475524</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.081289695497349</v>
       </c>
       <c r="AB26">
@@ -1917,6 +1968,10 @@
       </c>
     </row>
     <row r="27" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <f>0.176*E4</f>
+        <v>4.2239999999999993E-2</v>
+      </c>
       <c r="I27" t="s">
         <v>12</v>
       </c>
@@ -1927,26 +1982,26 @@
         <v>4591</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.5910000000000002</v>
       </c>
       <c r="N27">
         <v>3039448</v>
       </c>
       <c r="O27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3039448000</v>
       </c>
       <c r="P27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>799854.73684210528</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>662.04487039860601</v>
       </c>
       <c r="R27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>174222.33431542263</v>
       </c>
       <c r="S27" s="7">
@@ -1962,11 +2017,11 @@
         <v>0.03</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>6.6045827889258897</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.177337001175687</v>
       </c>
       <c r="AB27">
@@ -1986,26 +2041,26 @@
         <v>3114</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.1139999999999999</v>
       </c>
       <c r="N28">
         <v>19559768</v>
       </c>
       <c r="O28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19559768000</v>
       </c>
       <c r="P28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5147307.3684210526</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>6281.2357096981377</v>
       </c>
       <c r="R28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1652956.7657100363</v>
       </c>
       <c r="S28" s="7">
@@ -2021,11 +2076,11 @@
         <v>0.04</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.0024908930315126</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.57524510528131</v>
       </c>
       <c r="AB28">
@@ -2045,26 +2100,26 @@
         <v>4081</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.0810000000000004</v>
       </c>
       <c r="N29">
         <v>36370764</v>
       </c>
       <c r="O29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>36370764000</v>
       </c>
       <c r="P29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9571253.6842105258</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8912.2185738789503</v>
       </c>
       <c r="R29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2345320.6773365657</v>
       </c>
       <c r="S29" s="7">
@@ -2080,11 +2135,11 @@
         <v>0.05</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.0687599310462472</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.641514143296044</v>
       </c>
       <c r="AB29">
@@ -2096,26 +2151,26 @@
         <v>2426</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.4260000000000002</v>
       </c>
       <c r="N30">
         <v>12107029</v>
       </c>
       <c r="O30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12107029000</v>
       </c>
       <c r="P30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3186060.2631578948</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4990.5313272877165</v>
       </c>
       <c r="R30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1313297.7177072938</v>
       </c>
       <c r="S30" s="7">
@@ -2131,11 +2186,11 @@
         <v>0.06</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.3006469757660799</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.873401188015876</v>
       </c>
       <c r="AB30">
@@ -2147,26 +2202,26 @@
         <v>4981</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.9809999999999999</v>
       </c>
       <c r="N31">
         <v>27157727</v>
       </c>
       <c r="O31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>27157727000</v>
       </c>
       <c r="P31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7146770.2631578948</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5452.2640032122063</v>
       </c>
       <c r="R31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1434806.3166347912</v>
       </c>
       <c r="S31" s="7">
@@ -2182,11 +2237,11 @@
         <v>0.08</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.317437768684286</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>12.890191980934082</v>
       </c>
       <c r="AB31">
@@ -2198,26 +2253,26 @@
         <v>4750</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="N32">
         <v>9580865</v>
       </c>
       <c r="O32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9580865000</v>
       </c>
       <c r="P32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2521280.2631578948</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2017.0242105263158</v>
       </c>
       <c r="R32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>530795.84487534629</v>
       </c>
       <c r="S32" s="7">
@@ -2233,42 +2288,45 @@
         <v>0.09</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.6093785411178283</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.182132753367625</v>
       </c>
       <c r="AB32">
         <v>0.09</v>
       </c>
     </row>
-    <row r="33" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
       <c r="L33">
         <v>1116</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.1160000000000001</v>
       </c>
       <c r="N33">
         <v>18954673</v>
       </c>
       <c r="O33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18954673000</v>
       </c>
       <c r="P33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4988071.8421052629</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>16984.474014336916</v>
       </c>
       <c r="R33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4469598.4248255044</v>
       </c>
       <c r="S33" s="7">
@@ -2284,42 +2342,54 @@
         <v>0.11</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.8409922171053914</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.413746429355189</v>
       </c>
       <c r="AB33">
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:28" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="L34">
         <v>3936</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.9359999999999999</v>
       </c>
       <c r="N34">
         <v>5928952</v>
       </c>
       <c r="O34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>5928952000</v>
       </c>
       <c r="P34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1560250.5263157894</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1506.3394308943089</v>
       </c>
       <c r="R34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>396405.11339323921</v>
       </c>
       <c r="S34" s="7">
@@ -2335,42 +2405,56 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.8417461050673216</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.414500317317119</v>
       </c>
       <c r="AB34">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:28" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0.24</v>
+      </c>
+      <c r="F35" s="22">
+        <f>E35*0.1</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <f>E35*0.273</f>
+        <v>6.5520000000000009E-2</v>
+      </c>
       <c r="L35">
         <v>3890</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.89</v>
       </c>
       <c r="N35">
         <v>29195219</v>
       </c>
       <c r="O35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>29195219000</v>
       </c>
       <c r="P35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7682952.3684210526</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>7505.1976863753216</v>
       </c>
       <c r="R35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1975052.0227303477</v>
       </c>
       <c r="S35" s="7">
@@ -2386,42 +2470,56 @@
         <v>0.16</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.8493538652486521</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.42210807749845</v>
       </c>
       <c r="AB35">
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0.64</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" ref="F36:F42" si="7">E36*0.1</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" ref="G36:G42" si="8">E36*0.273</f>
+        <v>0.17472000000000001</v>
+      </c>
       <c r="L36">
         <v>3300</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="N36">
         <v>17145226</v>
       </c>
       <c r="O36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17145226000</v>
       </c>
       <c r="P36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4511901.5789473681</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5195.5230303030303</v>
       </c>
       <c r="R36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1367242.9027113237</v>
       </c>
       <c r="S36" s="7">
@@ -2437,42 +2535,56 @@
         <v>0.16</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>7.9758185475370738</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.548572759786872</v>
       </c>
       <c r="AB36">
         <v>0.16</v>
       </c>
     </row>
-    <row r="37" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>1.82</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="7"/>
+        <v>0.18200000000000002</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.49686000000000008</v>
+      </c>
       <c r="L37">
         <v>4577</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.577</v>
       </c>
       <c r="N37">
         <v>3379985</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3379985000</v>
       </c>
       <c r="P37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>889469.73684210528</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>738.47170635787631</v>
       </c>
       <c r="R37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>194334.6595678622</v>
       </c>
       <c r="S37" s="7">
@@ -2488,42 +2600,56 @@
         <v>0.17</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.0612827583416529</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.634036970591449</v>
       </c>
       <c r="AB37">
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="D38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>4.82</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="7"/>
+        <v>0.48200000000000004</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3158600000000003</v>
+      </c>
       <c r="L38">
         <v>2896</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.8959999999999999</v>
       </c>
       <c r="N38">
         <v>7363736</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7363736000</v>
       </c>
       <c r="P38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1937825.2631578948</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2542.7265193370167</v>
       </c>
       <c r="R38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>669138.55772026756</v>
       </c>
       <c r="S38" s="7">
@@ -2539,42 +2665,56 @@
         <v>0.17</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.0807739291221967</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.653528141371995</v>
       </c>
       <c r="AB38">
         <v>0.17</v>
       </c>
     </row>
-    <row r="39" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39">
+        <v>0.94</v>
+      </c>
+      <c r="F39" s="22">
+        <f>E39*0.1</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <f>E39*0.273</f>
+        <v>0.25662000000000001</v>
+      </c>
       <c r="L39">
         <v>4025</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.0250000000000004</v>
       </c>
       <c r="N39">
         <v>13865814</v>
       </c>
       <c r="O39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13865814000</v>
       </c>
       <c r="P39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3648898.4210526315</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3444.9227329192545</v>
       </c>
       <c r="R39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>906558.61392611952</v>
       </c>
       <c r="S39" s="7">
@@ -2590,42 +2730,56 @@
         <v>0.18</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.1162322247229302</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.688986436972728</v>
       </c>
       <c r="AB39">
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="D40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40">
+        <v>0.8</v>
+      </c>
+      <c r="F40" s="22">
+        <f>E40*0.1</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G40" s="2">
+        <f>E40*0.273</f>
+        <v>0.21840000000000004</v>
+      </c>
       <c r="L40">
         <v>1078</v>
       </c>
       <c r="M40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.0780000000000001</v>
       </c>
       <c r="N40">
         <v>12457859</v>
       </c>
       <c r="O40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12457859000</v>
       </c>
       <c r="P40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3278383.9473684211</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>11556.455473098331</v>
       </c>
       <c r="R40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>3041172.4929206129</v>
       </c>
       <c r="S40" s="7">
@@ -2641,42 +2795,56 @@
         <v>0.19</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.1409461853594305</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.713700397609228</v>
       </c>
       <c r="AB40">
         <v>0.19</v>
       </c>
     </row>
-    <row r="41" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="D41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41">
+        <v>0.92</v>
+      </c>
+      <c r="F41" s="22">
+        <f>E41*0.1</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <f>E41*0.273</f>
+        <v>0.25116000000000005</v>
+      </c>
       <c r="L41">
         <v>4339</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.3390000000000004</v>
       </c>
       <c r="N41">
         <v>18564238</v>
       </c>
       <c r="O41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18564238000</v>
       </c>
       <c r="P41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4885325.7894736845</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4278.4600138280712</v>
       </c>
       <c r="R41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1125910.5299547554</v>
       </c>
       <c r="S41" s="7">
@@ -2692,42 +2860,56 @@
         <v>0.22</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.1446567544354913</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.717410966685289</v>
       </c>
       <c r="AB41">
         <v>0.22</v>
       </c>
     </row>
-    <row r="42" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="D42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>0.76</v>
+      </c>
+      <c r="F42" s="22">
+        <f>E42*0.1</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <f>E42*0.273</f>
+        <v>0.20748000000000003</v>
+      </c>
       <c r="L42">
         <v>2940</v>
       </c>
       <c r="M42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.94</v>
       </c>
       <c r="N42">
         <v>15589404</v>
       </c>
       <c r="O42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15589404000</v>
       </c>
       <c r="P42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4102474.7368421052</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5302.5183673469392</v>
       </c>
       <c r="R42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1395399.5703544575</v>
       </c>
       <c r="S42" s="7">
@@ -2743,42 +2925,42 @@
         <v>0.24</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.1787084124710958</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.751462624720892</v>
       </c>
       <c r="AB42">
         <v>0.24</v>
       </c>
     </row>
-    <row r="43" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L43">
         <v>3987</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.9870000000000001</v>
       </c>
       <c r="N43">
         <v>30854120</v>
       </c>
       <c r="O43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>30854120000</v>
       </c>
       <c r="P43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8119505.2631578948</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>7738.6807123150238</v>
       </c>
       <c r="R43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2036494.9242934273</v>
       </c>
       <c r="S43" s="7">
@@ -2794,42 +2976,42 @@
         <v>0.25</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.1875578920743575</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.760312104324155</v>
       </c>
       <c r="AB43">
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L44">
         <v>2357</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.3570000000000002</v>
       </c>
       <c r="N44">
         <v>35981093</v>
       </c>
       <c r="O44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>35981093000</v>
       </c>
       <c r="P44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9468708.6842105258</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>15265.631310988545</v>
       </c>
       <c r="R44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4017271.3976285639</v>
       </c>
       <c r="S44" s="7">
@@ -2845,42 +3027,42 @@
         <v>0.27</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.2147575524748007</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.787511764724597</v>
       </c>
       <c r="AB44">
         <v>0.27</v>
       </c>
     </row>
-    <row r="45" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L45">
         <v>1073</v>
       </c>
       <c r="M45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.073</v>
       </c>
       <c r="N45">
         <v>24919463</v>
       </c>
       <c r="O45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24919463000</v>
       </c>
       <c r="P45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6557753.4210526319</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>23224.103448275862</v>
       </c>
       <c r="R45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>6111606.1705989121</v>
       </c>
       <c r="S45" s="7">
@@ -2896,42 +3078,42 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.2470144527043203</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.819768664954118</v>
       </c>
       <c r="AB45">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="46" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L46">
         <v>4506</v>
       </c>
       <c r="M46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.5060000000000002</v>
       </c>
       <c r="N46">
         <v>36522356</v>
       </c>
       <c r="O46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>36522356000</v>
       </c>
       <c r="P46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9611146.3157894742</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8105.2720816688861</v>
       </c>
       <c r="R46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2132966.3372812858</v>
       </c>
       <c r="S46" s="7">
@@ -2947,42 +3129,42 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.2892272835453333</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.861981495795131</v>
       </c>
       <c r="AB46">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L47">
         <v>4880</v>
       </c>
       <c r="M47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.88</v>
       </c>
       <c r="N47">
         <v>15770859</v>
       </c>
       <c r="O47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15770859000</v>
       </c>
       <c r="P47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4150226.0526315789</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3231.7334016393443</v>
       </c>
       <c r="R47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>850456.15832614328</v>
       </c>
       <c r="S47" s="7">
@@ -2998,42 +3180,42 @@
         <v>0.32</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.3546456667383833</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.927399878988179</v>
       </c>
       <c r="AB47">
         <v>0.32</v>
       </c>
     </row>
-    <row r="48" spans="12:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:28" x14ac:dyDescent="0.2">
       <c r="L48">
         <v>4112</v>
       </c>
       <c r="M48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.1120000000000001</v>
       </c>
       <c r="N48">
         <v>15194170</v>
       </c>
       <c r="O48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15194170000</v>
       </c>
       <c r="P48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3998465.789473684</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3695.0802529182879</v>
       </c>
       <c r="R48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>972389.54024165461</v>
       </c>
       <c r="S48" s="7">
@@ -3049,11 +3231,11 @@
         <v>0.34</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.3613484139754917</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.934102626225288</v>
       </c>
       <c r="AB48">
@@ -3065,26 +3247,26 @@
         <v>4959</v>
       </c>
       <c r="M49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.9589999999999996</v>
       </c>
       <c r="N49">
         <v>14429394</v>
       </c>
       <c r="O49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14429394000</v>
       </c>
       <c r="P49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3797208.9473684211</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2909.7386569872956</v>
       </c>
       <c r="R49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>765720.69920718321</v>
       </c>
       <c r="S49" s="7">
@@ -3100,11 +3282,11 @@
         <v>0.35</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.3735604953912404</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.946314707641038</v>
       </c>
       <c r="AB49">
@@ -3116,26 +3298,26 @@
         <v>1558</v>
       </c>
       <c r="M50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.5580000000000001</v>
       </c>
       <c r="N50">
         <v>29487457</v>
       </c>
       <c r="O50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>29487457000</v>
       </c>
       <c r="P50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7759857.1052631577</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>18926.480744544289</v>
       </c>
       <c r="R50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4980652.8275116542</v>
       </c>
       <c r="S50" s="7">
@@ -3151,11 +3333,11 @@
         <v>0.35</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.3902459756487815</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.963000187898579</v>
       </c>
       <c r="AB50">
@@ -3167,26 +3349,26 @@
         <v>4427</v>
       </c>
       <c r="M51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.4269999999999996</v>
       </c>
       <c r="N51">
         <v>24087912</v>
       </c>
       <c r="O51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24087912000</v>
       </c>
       <c r="P51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6338924.2105263155</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5441.136661395979</v>
       </c>
       <c r="R51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1431878.0687884158</v>
       </c>
       <c r="S51" s="7">
@@ -3202,11 +3384,11 @@
         <v>0.38</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.4243093777126212</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>13.997063589962419</v>
       </c>
       <c r="AB51">
@@ -3218,26 +3400,26 @@
         <v>1780</v>
       </c>
       <c r="M52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.78</v>
       </c>
       <c r="N52">
         <v>14113936</v>
       </c>
       <c r="O52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14113936000</v>
       </c>
       <c r="P52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3714193.6842105263</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>7929.1775280898873</v>
       </c>
       <c r="R52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2086625.6652868125</v>
       </c>
       <c r="S52" s="7">
@@ -3253,11 +3435,11 @@
         <v>0.39</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5152976614915126</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.088051873741309</v>
       </c>
       <c r="AB52">
@@ -3269,26 +3451,26 @@
         <v>2074</v>
       </c>
       <c r="M53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.0739999999999998</v>
       </c>
       <c r="N53">
         <v>3072129</v>
       </c>
       <c r="O53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3072129000</v>
       </c>
       <c r="P53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>808455</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1481.2579556412729</v>
       </c>
       <c r="R53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>389804.72516875603</v>
       </c>
       <c r="S53" s="7">
@@ -3304,11 +3486,11 @@
         <v>0.4</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5307274138779086</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.103481626127707</v>
       </c>
       <c r="AB53">
@@ -3320,26 +3502,26 @@
         <v>2016</v>
       </c>
       <c r="M54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.016</v>
       </c>
       <c r="N54">
         <v>8567755</v>
       </c>
       <c r="O54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8567755000</v>
       </c>
       <c r="P54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2254672.3684210526</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4249.8784722222226</v>
       </c>
       <c r="R54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1118389.071637427</v>
       </c>
       <c r="S54" s="7">
@@ -3355,11 +3537,11 @@
         <v>0.41</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5511203294585929</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.123874541708389</v>
       </c>
       <c r="AB54">
@@ -3371,26 +3553,26 @@
         <v>1211</v>
       </c>
       <c r="M55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.2110000000000001</v>
       </c>
       <c r="N55">
         <v>25742104</v>
       </c>
       <c r="O55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>25742104000</v>
       </c>
       <c r="P55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6774237.8947368423</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>21256.898431048721</v>
       </c>
       <c r="R55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>5593920.639749663</v>
       </c>
       <c r="S55" s="7">
@@ -3406,11 +3588,11 @@
         <v>0.41</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5517318085978005</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.124486020847598</v>
       </c>
       <c r="AB55">
@@ -3422,26 +3604,26 @@
         <v>3951</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.9510000000000001</v>
       </c>
       <c r="N56">
         <v>33787774</v>
       </c>
       <c r="O56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>33787774000</v>
       </c>
       <c r="P56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8891519.4736842103</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8551.7018476335106</v>
       </c>
       <c r="R56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2250447.8546403972</v>
       </c>
       <c r="S56" s="7">
@@ -3457,11 +3639,11 @@
         <v>0.43</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.555552578023331</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.128306790273127</v>
       </c>
       <c r="AB56">
@@ -3473,26 +3655,26 @@
         <v>1759</v>
       </c>
       <c r="M57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.7589999999999999</v>
       </c>
       <c r="N57">
         <v>8014878</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8014878000</v>
       </c>
       <c r="P57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2109178.4210526315</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4556.496873223422</v>
       </c>
       <c r="R57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1199078.1245324796</v>
       </c>
       <c r="S57" s="7">
@@ -3508,11 +3690,11 @@
         <v>0.44</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5587209652079057</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.131475177457704</v>
       </c>
       <c r="AB57">
@@ -3524,26 +3706,26 @@
         <v>4005</v>
       </c>
       <c r="M58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.0049999999999999</v>
       </c>
       <c r="N58">
         <v>13745816</v>
       </c>
       <c r="O58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13745816000</v>
       </c>
       <c r="P58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3617320</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3432.1637952559299</v>
       </c>
       <c r="R58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>903200.99875156058</v>
       </c>
       <c r="S58" s="7">
@@ -3559,11 +3741,11 @@
         <v>0.44</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.5759371503360793</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.148691362585877</v>
       </c>
       <c r="AB58">
@@ -3575,26 +3757,26 @@
         <v>1846</v>
       </c>
       <c r="M59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.8460000000000001</v>
       </c>
       <c r="N59">
         <v>7995080</v>
       </c>
       <c r="O59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7995080000</v>
       </c>
       <c r="P59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2103968.4210526315</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4331.0292524377028</v>
       </c>
       <c r="R59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1139744.5401151848</v>
       </c>
       <c r="S59" s="7">
@@ -3610,11 +3792,11 @@
         <v>0.45</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.6017432631335549</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.174497475383351</v>
       </c>
       <c r="AB59">
@@ -3626,26 +3808,26 @@
         <v>2583</v>
       </c>
       <c r="M60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.5830000000000002</v>
       </c>
       <c r="N60">
         <v>6623011</v>
       </c>
       <c r="O60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>6623011000</v>
       </c>
       <c r="P60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1742897.6315789474</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2564.0770421989932</v>
       </c>
       <c r="R60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>674757.11636815616</v>
       </c>
       <c r="S60" s="7">
@@ -3661,11 +3843,11 @@
         <v>0.49</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.6037862148304498</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.176540427080248</v>
       </c>
       <c r="AB60">
@@ -3677,26 +3859,26 @@
         <v>4192</v>
       </c>
       <c r="M61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.1920000000000002</v>
       </c>
       <c r="N61">
         <v>34470140</v>
       </c>
       <c r="O61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>34470140000</v>
       </c>
       <c r="P61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9071089.4736842103</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8222.8387404580153</v>
       </c>
       <c r="R61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2163904.9316994776</v>
       </c>
       <c r="S61" s="7">
@@ -3712,11 +3894,11 @@
         <v>0.52</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.6463150384308758</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.219069250680672</v>
       </c>
       <c r="AB61">
@@ -3728,26 +3910,26 @@
         <v>1274</v>
       </c>
       <c r="M62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.274</v>
       </c>
       <c r="N62">
         <v>23580312</v>
       </c>
       <c r="O62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>23580312000</v>
       </c>
       <c r="P62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6205345.2631578948</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>18508.879120879123</v>
       </c>
       <c r="R62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4870757.6633892423</v>
       </c>
       <c r="S62" s="7">
@@ -3763,11 +3945,11 @@
         <v>0.53</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.687404888344755</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.260159100594551</v>
       </c>
       <c r="AB62">
@@ -3779,26 +3961,26 @@
         <v>1306</v>
       </c>
       <c r="M63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.306</v>
       </c>
       <c r="N63">
         <v>29585095</v>
       </c>
       <c r="O63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>29585095000</v>
       </c>
       <c r="P63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7785551.3157894732</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>22653.21209800919</v>
       </c>
       <c r="R63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>5961371.6047392599</v>
       </c>
       <c r="S63" s="7">
@@ -3814,11 +3996,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.7453220091659656</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.318076221415762</v>
       </c>
       <c r="AB63">
@@ -3830,26 +4012,26 @@
         <v>3112</v>
       </c>
       <c r="M64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.1120000000000001</v>
       </c>
       <c r="N64">
         <v>29731794</v>
       </c>
       <c r="O64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>29731794000</v>
       </c>
       <c r="P64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7824156.3157894732</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>9553.9183804627246</v>
       </c>
       <c r="R64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2514189.0474901907</v>
       </c>
       <c r="S64" s="7">
@@ -3865,11 +4047,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.8157219792611965</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.388476191510993</v>
       </c>
       <c r="AB64">
@@ -3881,26 +4063,26 @@
         <v>3029</v>
       </c>
       <c r="M65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.0289999999999999</v>
       </c>
       <c r="N65">
         <v>15787180</v>
       </c>
       <c r="O65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15787180000</v>
       </c>
       <c r="P65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4154521.0526315789</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5212.0105645427529</v>
       </c>
       <c r="R65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1371581.7275112509</v>
       </c>
       <c r="S65" s="7">
@@ -3916,11 +4098,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.845250402506716</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.418004614756512</v>
       </c>
       <c r="AB65">
@@ -3932,26 +4114,26 @@
         <v>3501</v>
       </c>
       <c r="M66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.5009999999999999</v>
       </c>
       <c r="N66">
         <v>11095905</v>
       </c>
       <c r="O66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>11095905000</v>
       </c>
       <c r="P66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2919975</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3169.3530419880035</v>
       </c>
       <c r="R66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>834040.27420736931</v>
       </c>
       <c r="S66" s="7">
@@ -3967,11 +4149,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.923351084343615</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.496105296593411</v>
       </c>
       <c r="AB66">
@@ -3983,26 +4165,26 @@
         <v>2791</v>
       </c>
       <c r="M67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.7909999999999999</v>
       </c>
       <c r="N67">
         <v>3278561</v>
       </c>
       <c r="O67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3278561000</v>
       </c>
       <c r="P67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>862779.21052631584</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1174.690433536367</v>
       </c>
       <c r="R67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>309129.06145693868</v>
       </c>
       <c r="S67" s="7">
@@ -4018,11 +4200,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.9539865014501228</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.526740713699921</v>
       </c>
       <c r="AB67">
@@ -4034,26 +4216,26 @@
         <v>2710</v>
       </c>
       <c r="M68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.71</v>
       </c>
       <c r="N68">
         <v>22507145</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>22507145000</v>
       </c>
       <c r="P68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5922932.8947368423</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8305.2195571955726</v>
       </c>
       <c r="R68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2185584.093998835</v>
       </c>
       <c r="S68" s="7">
@@ -4069,11 +4251,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.978304592741754</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.55105880499155</v>
       </c>
       <c r="AB68">
@@ -4085,26 +4267,26 @@
         <v>2601</v>
       </c>
       <c r="M69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.601</v>
       </c>
       <c r="N69">
         <v>23181092</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>23181092000</v>
       </c>
       <c r="P69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6100287.3684210526</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8912.3767781622446</v>
       </c>
       <c r="R69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2345362.3100426961</v>
       </c>
       <c r="S69" s="7">
@@ -4120,11 +4302,11 @@
         <v>0.61</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>8.9997126309514339</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.572466843201232</v>
       </c>
       <c r="AB69">
@@ -4136,26 +4318,26 @@
         <v>2028</v>
       </c>
       <c r="M70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.028</v>
       </c>
       <c r="N70">
         <v>25153217</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>25153217000</v>
       </c>
       <c r="P70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6619267.6315789474</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>12402.966962524655</v>
       </c>
       <c r="R70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>3263938.6743485932</v>
       </c>
       <c r="S70" s="7">
@@ -4171,11 +4353,11 @@
         <v>0.62</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0002700032138421</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.573024215463638</v>
       </c>
       <c r="AB70">
@@ -4187,26 +4369,26 @@
         <v>4931</v>
       </c>
       <c r="M71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.931</v>
       </c>
       <c r="N71">
         <v>3307928</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3307928000</v>
       </c>
       <c r="P71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>870507.36842105258</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>670.84323666599062</v>
       </c>
       <c r="R71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>176537.69385947121</v>
       </c>
       <c r="S71" s="7">
@@ -4222,11 +4404,11 @@
         <v>0.63</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.014670773986678</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.587424986236474</v>
       </c>
       <c r="AB71">
@@ -4238,26 +4420,26 @@
         <v>2391</v>
       </c>
       <c r="M72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.391</v>
       </c>
       <c r="N72">
         <v>28980595</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>28980595000</v>
       </c>
       <c r="P72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7626472.3684210526</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>12120.700543705563</v>
       </c>
       <c r="R72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>3189658.0378172533</v>
       </c>
       <c r="S72" s="7">
@@ -4273,11 +4455,11 @@
         <v>0.63</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0246394584463641</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.59739367069616</v>
       </c>
       <c r="AB72">
@@ -4289,26 +4471,26 @@
         <v>1587</v>
       </c>
       <c r="M73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.587</v>
       </c>
       <c r="N73">
         <v>14615936</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14615936000</v>
       </c>
       <c r="P73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3846298.9473684211</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>9209.7895400126017</v>
       </c>
       <c r="R73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2423628.8263191059</v>
       </c>
       <c r="S73" s="7">
@@ -4324,11 +4506,11 @@
         <v>0.64</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0438739418873819</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.616628154137178</v>
       </c>
       <c r="AB73">
@@ -4340,26 +4522,26 @@
         <v>2970</v>
       </c>
       <c r="M74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.97</v>
       </c>
       <c r="N74">
         <v>10585817</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10585817000</v>
       </c>
       <c r="P74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2785741.3157894737</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3564.2481481481482</v>
       </c>
       <c r="R74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>937960.03898635472</v>
       </c>
       <c r="S74" s="7">
@@ -4375,11 +4557,11 @@
         <v>0.67</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0538855886305214</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.626639800880319</v>
       </c>
       <c r="AB74">
@@ -4391,26 +4573,26 @@
         <v>2926</v>
       </c>
       <c r="M75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.9260000000000002</v>
       </c>
       <c r="N75">
         <v>15134870</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15134870000</v>
       </c>
       <c r="P75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3982860.5263157897</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5172.5461380724537</v>
       </c>
       <c r="R75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1361196.3521243299</v>
       </c>
       <c r="S75" s="7">
@@ -4426,11 +4608,11 @@
         <v>0.7</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0574657301043437</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.630219942354142</v>
       </c>
       <c r="AB75">
@@ -4442,26 +4624,26 @@
         <v>3550</v>
       </c>
       <c r="M76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.55</v>
       </c>
       <c r="N76">
         <v>24641764</v>
       </c>
       <c r="O76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24641764000</v>
       </c>
       <c r="P76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6484674.7368421052</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>6941.341971830986</v>
       </c>
       <c r="R76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1826668.9399555228</v>
       </c>
       <c r="S76" s="7">
@@ -4477,11 +4659,11 @@
         <v>0.72</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0600610942376729</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.632815306487469</v>
       </c>
       <c r="AB76">
@@ -4493,26 +4675,26 @@
         <v>1528</v>
       </c>
       <c r="M77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.528</v>
       </c>
       <c r="N77">
         <v>13990657</v>
       </c>
       <c r="O77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13990657000</v>
       </c>
       <c r="P77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3681751.8421052634</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>9156.1891361256548</v>
       </c>
       <c r="R77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2409523.4568751724</v>
       </c>
       <c r="S77" s="7">
@@ -4528,11 +4710,11 @@
         <v>0.73</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0933051311899487</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.666059343439745</v>
       </c>
       <c r="AB77">
@@ -4544,26 +4726,26 @@
         <v>3858</v>
       </c>
       <c r="M78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.8580000000000001</v>
       </c>
       <c r="N78">
         <v>26000496</v>
       </c>
       <c r="O78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>26000496000</v>
       </c>
       <c r="P78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6842235.7894736845</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>6739.3716951788492</v>
       </c>
       <c r="R78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1773518.8671523288</v>
       </c>
       <c r="S78" s="7">
@@ -4579,11 +4761,11 @@
         <v>0.76</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.095178487660629</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.667932699910427</v>
       </c>
       <c r="AB78">
@@ -4595,26 +4777,26 @@
         <v>1070</v>
       </c>
       <c r="M79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
       <c r="N79">
         <v>4259410</v>
       </c>
       <c r="O79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4259410000</v>
       </c>
       <c r="P79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1120897.3684210526</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3980.7570093457944</v>
       </c>
       <c r="R79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1047567.6340383668</v>
       </c>
       <c r="S79" s="7">
@@ -4630,11 +4812,11 @@
         <v>0.76</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.0951962388948289</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.667950451144625</v>
       </c>
       <c r="AB79">
@@ -4646,26 +4828,26 @@
         <v>3561</v>
       </c>
       <c r="M80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.5609999999999999</v>
       </c>
       <c r="N80">
         <v>28846791</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>28846791000</v>
       </c>
       <c r="P80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7591260.7894736845</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8100.7556866048863</v>
       </c>
       <c r="R80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2131777.8122644438</v>
       </c>
       <c r="S80" s="7">
@@ -4681,11 +4863,11 @@
         <v>0.79</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.1221853379283093</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.694939550178107</v>
       </c>
       <c r="AB80">
@@ -4697,26 +4879,26 @@
         <v>3819</v>
       </c>
       <c r="M81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.819</v>
       </c>
       <c r="N81">
         <v>4198487</v>
       </c>
       <c r="O81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4198487000</v>
       </c>
       <c r="P81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1104865</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1099.3681592039802</v>
       </c>
       <c r="R81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>289307.41031683685</v>
       </c>
       <c r="S81" s="7">
@@ -4732,11 +4914,11 @@
         <v>0.82</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.1280222777409836</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.700776489990782</v>
       </c>
       <c r="AB81">
@@ -4748,26 +4930,26 @@
         <v>3448</v>
       </c>
       <c r="M82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.448</v>
       </c>
       <c r="N82">
         <v>29668924</v>
       </c>
       <c r="O82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>29668924000</v>
       </c>
       <c r="P82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7807611.5789473681</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8604.676334106729</v>
       </c>
       <c r="R82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2264388.5089754546</v>
       </c>
       <c r="S82" s="7">
@@ -4783,11 +4965,11 @@
         <v>0.83</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.1647066509432182</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.737460863193014</v>
       </c>
       <c r="AB82">
@@ -4799,26 +4981,26 @@
         <v>4575</v>
       </c>
       <c r="M83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.5750000000000002</v>
       </c>
       <c r="N83">
         <v>27119589</v>
       </c>
       <c r="O83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>27119589000</v>
       </c>
       <c r="P83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7136733.9473684207</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5927.7790163934424</v>
       </c>
       <c r="R83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1559941.846419327</v>
       </c>
       <c r="S83" s="7">
@@ -4834,11 +5016,11 @@
         <v>0.84</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.3549994752346599</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.927753687484456</v>
       </c>
       <c r="AB83">
@@ -4850,26 +5032,26 @@
         <v>2059</v>
       </c>
       <c r="M84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.0590000000000002</v>
       </c>
       <c r="N84">
         <v>17432549</v>
       </c>
       <c r="O84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17432549000</v>
       </c>
       <c r="P84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4587512.8947368423</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8466.512384652744</v>
       </c>
       <c r="R84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2228029.574908617</v>
       </c>
       <c r="S84" s="7">
@@ -4885,11 +5067,11 @@
         <v>0.86</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.4026700585886864</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.975424270838483</v>
       </c>
       <c r="AB84">
@@ -4901,26 +5083,26 @@
         <v>3629</v>
       </c>
       <c r="M85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>3.629</v>
       </c>
       <c r="N85">
         <v>32281909</v>
       </c>
       <c r="O85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>32281909000</v>
       </c>
       <c r="P85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8495239.2105263155</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>8895.538440341692</v>
       </c>
       <c r="R85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>2340931.1685109716</v>
       </c>
       <c r="S85" s="7">
@@ -4936,11 +5118,11 @@
         <v>0.86</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.4256909941436895</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>14.998445206393487</v>
       </c>
       <c r="AB85">
@@ -4952,26 +5134,26 @@
         <v>2072</v>
       </c>
       <c r="M86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>2.0720000000000001</v>
       </c>
       <c r="N86">
         <v>37266700</v>
       </c>
       <c r="O86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>37266700000</v>
       </c>
       <c r="P86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9807026.3157894742</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>17985.859073359072</v>
       </c>
       <c r="R86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>4733120.8087787032</v>
       </c>
       <c r="S86" s="7">
@@ -4987,11 +5169,11 @@
         <v>0.86</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.5343431643293126</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>15.107097376579109</v>
       </c>
       <c r="AB86">
@@ -5003,26 +5185,26 @@
         <v>4042</v>
       </c>
       <c r="M87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.0419999999999998</v>
       </c>
       <c r="N87">
         <v>20485386</v>
       </c>
       <c r="O87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>20485386000</v>
       </c>
       <c r="P87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5390891.0526315793</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5068.1311232063335</v>
       </c>
       <c r="R87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1333718.7166332458</v>
       </c>
       <c r="S87" s="7">
@@ -5038,11 +5220,11 @@
         <v>0.89</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.5967318346652046</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>15.169486046915001</v>
       </c>
       <c r="AB87">
@@ -5054,26 +5236,26 @@
         <v>1798</v>
       </c>
       <c r="M88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.798</v>
       </c>
       <c r="N88">
         <v>24860068</v>
       </c>
       <c r="O88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24860068000</v>
       </c>
       <c r="P88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6542123.1578947371</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>13826.511679644049</v>
       </c>
       <c r="R88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>3638555.7051694868</v>
       </c>
       <c r="S88" s="7">
@@ -5089,11 +5271,11 @@
         <v>0.91</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>9.6333592610768992</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>15.206113473326695</v>
       </c>
       <c r="AB88">
@@ -5105,26 +5287,26 @@
         <v>4426</v>
       </c>
       <c r="M89">
-        <f t="shared" ref="M89:M95" si="15">L89/1000</f>
+        <f t="shared" ref="M89:M95" si="9">L89/1000</f>
         <v>4.4260000000000002</v>
       </c>
       <c r="N89">
         <v>19491665</v>
       </c>
       <c r="O89">
-        <f t="shared" ref="O89:O95" si="16">N89*1000</f>
+        <f t="shared" ref="O89:O95" si="10">N89*1000</f>
         <v>19491665000</v>
       </c>
       <c r="P89">
-        <f t="shared" ref="P89:P95" si="17">O89/3800</f>
+        <f t="shared" ref="P89:P95" si="11">O89/3800</f>
         <v>5129385.5263157897</v>
       </c>
       <c r="Q89">
-        <f t="shared" ref="Q89:Q95" si="18">N89/L89</f>
+        <f t="shared" ref="Q89:Q95" si="12">N89/L89</f>
         <v>4403.9008133755087</v>
       </c>
       <c r="R89">
-        <f t="shared" ref="R89:R95" si="19">P89/M89</f>
+        <f t="shared" ref="R89:R95" si="13">P89/M89</f>
         <v>1158921.2666777654</v>
       </c>
       <c r="S89" s="7">
@@ -5140,11 +5322,11 @@
         <v>0.95</v>
       </c>
       <c r="Z89">
-        <f t="shared" ref="Z89:Z95" si="20">LN(V89)</f>
+        <f t="shared" ref="Z89:Z95" si="14">LN(V89)</f>
         <v>9.7400549124576496</v>
       </c>
       <c r="AA89">
-        <f t="shared" ref="AA89:AA95" si="21">LN(W89)</f>
+        <f t="shared" ref="AA89:AA95" si="15">LN(W89)</f>
         <v>15.312809124707448</v>
       </c>
       <c r="AB89">
@@ -5156,26 +5338,26 @@
         <v>4625</v>
       </c>
       <c r="M90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4.625</v>
       </c>
       <c r="N90">
         <v>26312290</v>
       </c>
       <c r="O90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>26312290000</v>
       </c>
       <c r="P90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6924286.8421052629</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5689.1437837837839</v>
       </c>
       <c r="R90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1497143.1009957325</v>
       </c>
       <c r="S90" s="7">
@@ -5191,11 +5373,11 @@
         <v>0.95</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.7973411210917725</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.370095333341569</v>
       </c>
       <c r="AB90">
@@ -5207,26 +5389,26 @@
         <v>4895</v>
       </c>
       <c r="M91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4.8949999999999996</v>
       </c>
       <c r="N91">
         <v>16390325</v>
       </c>
       <c r="O91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>16390325000</v>
       </c>
       <c r="P91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4313243.4210526319</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3348.3810010214506</v>
       </c>
       <c r="R91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>881152.895005645</v>
       </c>
       <c r="S91" s="7">
@@ -5242,11 +5424,11 @@
         <v>0.98</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.8260058484060178</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.398760060655814</v>
       </c>
       <c r="AB91">
@@ -5258,26 +5440,26 @@
         <v>2552</v>
       </c>
       <c r="M92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2.552</v>
       </c>
       <c r="N92">
         <v>37556780</v>
       </c>
       <c r="O92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>37556780000</v>
       </c>
       <c r="P92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9883363.1578947362</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>14716.6065830721</v>
       </c>
       <c r="R92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3872791.206071605</v>
       </c>
       <c r="S92" s="7">
@@ -5293,11 +5475,11 @@
         <v>0.98</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.8483173180212908</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.421071530271089</v>
       </c>
       <c r="AB92">
@@ -5309,26 +5491,26 @@
         <v>1579</v>
       </c>
       <c r="M93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1.579</v>
       </c>
       <c r="N93">
         <v>13551567</v>
       </c>
       <c r="O93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>13551567000</v>
       </c>
       <c r="P93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3566201.8421052634</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>8582.3730208993038</v>
       </c>
       <c r="R93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2258519.2160261325</v>
       </c>
       <c r="S93" s="7">
@@ -5344,11 +5526,11 @@
         <v>1</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>9.9644367537203316</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.537190965970129</v>
       </c>
       <c r="AB93">
@@ -5360,26 +5542,26 @@
         <v>4994</v>
       </c>
       <c r="M94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4.9939999999999998</v>
       </c>
       <c r="N94">
         <v>12707953</v>
       </c>
       <c r="O94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>12707953000</v>
       </c>
       <c r="P94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3344198.1578947366</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2544.644173007609</v>
       </c>
       <c r="R94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>669643.20342305501</v>
       </c>
       <c r="S94" s="7">
@@ -5395,11 +5577,11 @@
         <v>1</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>10.0280569353381</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.600811147587896</v>
       </c>
       <c r="AB94">
@@ -5411,26 +5593,26 @@
         <v>2522</v>
       </c>
       <c r="M95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2.5219999999999998</v>
       </c>
       <c r="N95">
         <v>9624495</v>
       </c>
       <c r="O95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>9624495000</v>
       </c>
       <c r="P95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2532761.8421052634</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3816.2153053132433</v>
       </c>
       <c r="R95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1004267.1856087485</v>
       </c>
       <c r="S95" s="7">
@@ -5446,11 +5628,11 @@
         <v>1</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>10.052945960063985</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.625700172313781</v>
       </c>
       <c r="AB95">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierfernandez/Google Drive/Internship_WB_Summer/Edit/Github/My_internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C548A-6A24-5740-9419-87B9EEB2A700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B55E8-A3C0-2342-86D1-8D4021373B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" activeTab="3" xr2:uid="{F2C3729D-3322-EB44-BE48-C85F23F1813D}"/>
   </bookViews>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AC0F81-644A-F342-85C6-A2A5E10AF9E0}">
   <dimension ref="C2:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
